--- a/heat_map/xlsx/map_4.xlsx
+++ b/heat_map/xlsx/map_4.xlsx
@@ -673,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>1</v>
@@ -875,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z5" t="n">
         <v>1</v>
@@ -955,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
         <v>1</v>
@@ -1014,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -1097,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -1172,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="AC8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
         <v>1</v>
@@ -1231,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
         <v>1</v>
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -1857,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1964,7 +1964,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -2006,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="V17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W17" t="n">
         <v>1</v>
@@ -2240,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -2285,25 +2285,25 @@
         <v>1</v>
       </c>
       <c r="T20" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z20" t="n">
         <v>2</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1</v>
       </c>
       <c r="AA20" t="n">
         <v>1</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -2386,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="V21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" t="n">
         <v>1</v>
@@ -2469,7 +2469,7 @@
         <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -2496,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="AA22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB22" t="n">
         <v>1</v>
@@ -2543,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23" t="n">
         <v>1</v>
@@ -2588,7 +2588,7 @@
         <v>1</v>
       </c>
       <c r="Z23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA23" t="n">
         <v>1</v>
@@ -2668,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
         <v>1</v>
